--- a/BackTest/2020-01-15 BackTest IPX.xlsx
+++ b/BackTest/2020-01-15 BackTest IPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2134,7 +2134,7 @@
         <v>45847.277424145</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>45847.277424145</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>57480.519124145</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>57492.519124145</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>57472.949824145</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>57472.949824145</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>57472.949824145</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>57472.949824145</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>57472.949824145</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>57494.949824145</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>57462.771824145</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>57462.771824145</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>57484.771824145</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>57484.771824145</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>57484.771824145</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>66425.687524145</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>66311.341224145</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>66311.341224145</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>67575.188424145</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-41883.76647585499</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-41883.76647585499</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-41883.76647585499</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-46378.35467585499</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-58898.46827585499</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-89696.14157585498</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-123670.864375855</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-141743.696575855</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-141743.696575855</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-347219.259375855</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-347219.259375855</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-347219.259375855</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-347219.259375855</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-382587.903575855</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-382587.903575855</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-382587.903575855</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-415216.3665758549</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -5236,10 +5236,14 @@
         <v>-530345.344975855</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>42.54</v>
+      </c>
+      <c r="J147" t="n">
+        <v>42.54</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
@@ -5272,8 +5276,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>42.54</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5312,19 @@
         <v>-530345.344975855</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>42.54</v>
+      </c>
+      <c r="J149" t="n">
+        <v>42.54</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5368,10 +5386,14 @@
         <v>-530345.344975855</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>42.54</v>
+      </c>
+      <c r="J151" t="n">
+        <v>42.54</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
@@ -5404,8 +5426,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>42.54</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +5465,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>42.54</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,10 +5501,14 @@
         <v>-538774.844675855</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>42.53</v>
+      </c>
+      <c r="J154" t="n">
+        <v>42.53</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
@@ -5500,11 +5538,19 @@
         <v>-538708.452275855</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>42.52</v>
+      </c>
+      <c r="J155" t="n">
+        <v>42.53</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5579,19 @@
         <v>-538708.452275855</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>42.54</v>
+      </c>
+      <c r="J156" t="n">
+        <v>42.53</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5620,19 @@
         <v>-538774.452275855</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>42.54</v>
+      </c>
+      <c r="J157" t="n">
+        <v>42.53</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,15 +5661,19 @@
         <v>-538730.452275855</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>42.52</v>
       </c>
       <c r="J158" t="n">
-        <v>42.52</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
+        <v>42.53</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5636,17 +5702,17 @@
         <v>-540553.683475855</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>42.54</v>
       </c>
       <c r="J159" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L159" t="n">
@@ -5677,17 +5743,17 @@
         <v>-540553.683475855</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>42.52</v>
       </c>
       <c r="J160" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L160" t="n">
@@ -5718,15 +5784,19 @@
         <v>-540553.683475855</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>42.52</v>
       </c>
       <c r="J161" t="n">
-        <v>42.52</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
+        <v>42.53</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5755,17 +5825,17 @@
         <v>-517088.1151758551</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>42.52</v>
       </c>
       <c r="J162" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L162" t="n">
@@ -5796,17 +5866,17 @@
         <v>-557389.0766758551</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>42.54</v>
       </c>
       <c r="J163" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L163" t="n">
@@ -5837,13 +5907,13 @@
         <v>-556732.0766758551</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>42.52</v>
       </c>
       <c r="J164" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -5878,13 +5948,13 @@
         <v>-556732.0766758551</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>42.54</v>
       </c>
       <c r="J165" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -5919,13 +5989,13 @@
         <v>-533603.653875855</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>42.54</v>
       </c>
       <c r="J166" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -5960,13 +6030,13 @@
         <v>-533560.4244758551</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>43</v>
       </c>
       <c r="J167" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6001,13 +6071,11 @@
         <v>-533560.4244758551</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>43.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6046,7 +6114,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6085,7 +6153,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6124,7 +6192,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6163,7 +6231,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6202,7 +6270,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6241,7 +6309,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6280,7 +6348,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6319,7 +6387,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6358,7 +6426,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6397,7 +6465,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6436,7 +6504,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6475,7 +6543,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6514,7 +6582,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6553,7 +6621,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6592,7 +6660,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6631,7 +6699,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6670,7 +6738,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6709,7 +6777,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6748,7 +6816,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6787,7 +6855,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6826,7 +6894,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6865,7 +6933,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6904,7 +6972,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -6943,7 +7011,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -6982,7 +7050,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7021,7 +7089,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7060,7 +7128,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7099,7 +7167,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7138,7 +7206,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7177,7 +7245,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7216,7 +7284,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7255,7 +7323,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7294,7 +7362,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7333,7 +7401,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7372,7 +7440,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7411,7 +7479,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7450,7 +7518,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7489,7 +7557,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7528,7 +7596,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7567,7 +7635,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7606,7 +7674,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7645,7 +7713,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7684,7 +7752,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7723,7 +7791,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7762,7 +7830,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7801,7 +7869,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7840,7 +7908,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -7879,7 +7947,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -7918,7 +7986,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -7957,7 +8025,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -7996,7 +8064,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8035,7 +8103,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8074,7 +8142,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8113,7 +8181,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8152,7 +8220,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8191,7 +8259,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8230,7 +8298,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8269,7 +8337,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8308,7 +8376,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8347,7 +8415,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8386,7 +8454,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8425,7 +8493,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8464,7 +8532,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8503,7 +8571,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8542,7 +8610,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8581,7 +8649,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8620,7 +8688,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8659,7 +8727,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8698,7 +8766,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8737,7 +8805,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8776,7 +8844,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8815,7 +8883,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8854,7 +8922,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8893,7 +8961,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8932,7 +9000,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8971,7 +9039,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9010,7 +9078,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9049,7 +9117,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -9088,7 +9156,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9127,7 +9195,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9162,11 +9230,13 @@
         <v>-620980.2262758551</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>42.52</v>
+      </c>
       <c r="J249" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9201,11 +9271,13 @@
         <v>-618759.1083758551</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>42.52</v>
+      </c>
       <c r="J250" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9240,11 +9312,13 @@
         <v>-622079.1093758552</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>42.56</v>
+      </c>
       <c r="J251" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9279,11 +9353,13 @@
         <v>-622079.1093758552</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>42.54</v>
+      </c>
       <c r="J252" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9318,11 +9394,13 @@
         <v>-622079.1093758552</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>42.54</v>
+      </c>
       <c r="J253" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9357,13 +9435,13 @@
         <v>-621879.1093758552</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>42.54</v>
       </c>
       <c r="J254" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9398,13 +9476,13 @@
         <v>-621879.1093758552</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>42.7</v>
       </c>
       <c r="J255" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9439,13 +9517,13 @@
         <v>-624464.0959758551</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>42.7</v>
       </c>
       <c r="J256" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9480,13 +9558,13 @@
         <v>-622709.6463271441</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>42.54</v>
       </c>
       <c r="J257" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9521,11 +9599,13 @@
         <v>-622709.6463271441</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J258" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9560,11 +9640,13 @@
         <v>-622709.6463271441</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J259" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9599,11 +9681,13 @@
         <v>-623030.2024271442</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J260" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9638,11 +9722,13 @@
         <v>-623030.2024271442</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>42.54</v>
+      </c>
       <c r="J261" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9677,11 +9763,13 @@
         <v>-623008.2024271442</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>42.54</v>
+      </c>
       <c r="J262" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9716,11 +9804,13 @@
         <v>-623008.2024271442</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J263" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9755,11 +9845,13 @@
         <v>-623008.2024271442</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J264" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9794,11 +9886,13 @@
         <v>-623008.2024271442</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J265" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9833,11 +9927,13 @@
         <v>-623030.2024271442</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J266" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9872,11 +9968,13 @@
         <v>-623030.2024271442</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>42.54</v>
+      </c>
       <c r="J267" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9911,11 +10009,13 @@
         <v>-623030.2024271442</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>42.54</v>
+      </c>
       <c r="J268" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9950,13 +10050,13 @@
         <v>-623030.2024271442</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>42.54</v>
       </c>
       <c r="J269" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9991,11 +10091,13 @@
         <v>-624530.2024271442</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>42.54</v>
+      </c>
       <c r="J270" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10030,13 +10132,13 @@
         <v>-682861.5685271441</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>42.53</v>
       </c>
       <c r="J271" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -10071,13 +10173,13 @@
         <v>-682861.5685271441</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>42.5</v>
       </c>
       <c r="J272" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10112,11 +10214,13 @@
         <v>-682861.5685271441</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J273" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10151,11 +10255,13 @@
         <v>-682861.5685271441</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J274" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10190,11 +10296,13 @@
         <v>-682454.7197271441</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J275" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10233,7 +10341,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10268,11 +10376,13 @@
         <v>-682454.7197271441</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J277" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10307,11 +10417,13 @@
         <v>-682454.7197271441</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J278" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10346,11 +10458,13 @@
         <v>-700208.0899271441</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J279" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10385,11 +10499,13 @@
         <v>-676680.4759758551</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J280" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10424,11 +10540,13 @@
         <v>-679012.0235245661</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J281" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10463,11 +10581,13 @@
         <v>-455337.4707245661</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J282" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10506,7 +10626,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10545,7 +10665,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10584,7 +10704,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10623,7 +10743,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10662,7 +10782,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10701,7 +10821,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10740,7 +10860,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10775,11 +10895,13 @@
         <v>-465451.0039245661</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J290" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10814,11 +10936,13 @@
         <v>-462670.3627245661</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J291" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10857,7 +10981,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10892,13 +11016,13 @@
         <v>-462670.3627245661</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>42.7</v>
       </c>
       <c r="J293" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10933,11 +11057,13 @@
         <v>-462670.3627245661</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J294" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10976,7 +11102,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -11015,7 +11141,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -11054,7 +11180,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -11093,7 +11219,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -11132,7 +11258,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -11171,7 +11297,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -11210,7 +11336,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -11249,7 +11375,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -11288,7 +11414,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -11327,7 +11453,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -11366,7 +11492,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11405,7 +11531,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11444,7 +11570,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11483,7 +11609,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11522,7 +11648,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11561,7 +11687,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11600,7 +11726,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11639,7 +11765,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11678,7 +11804,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11717,7 +11843,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11756,7 +11882,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11795,7 +11921,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11834,7 +11960,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11873,7 +11999,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11912,7 +12038,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11951,7 +12077,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11990,7 +12116,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -12029,7 +12155,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -12068,7 +12194,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -12107,7 +12233,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -12146,7 +12272,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -12185,7 +12311,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -12224,7 +12350,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -12263,7 +12389,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -12302,7 +12428,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -12341,7 +12467,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -12380,7 +12506,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -12419,7 +12545,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12458,7 +12584,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -12497,7 +12623,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12536,7 +12662,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12575,7 +12701,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -12614,7 +12740,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12653,7 +12779,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12692,7 +12818,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12731,7 +12857,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12770,7 +12896,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12809,7 +12935,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12848,7 +12974,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12887,7 +13013,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12926,7 +13052,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12965,7 +13091,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -13004,7 +13130,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -13043,7 +13169,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -13082,7 +13208,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -13121,7 +13247,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -13160,7 +13286,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -13199,7 +13325,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -13238,7 +13364,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -13277,7 +13403,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -13316,7 +13442,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -13355,7 +13481,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -13394,7 +13520,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -13433,7 +13559,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -13472,7 +13598,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -13511,7 +13637,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -13550,7 +13676,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -13589,7 +13715,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -13628,7 +13754,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -13667,7 +13793,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -13706,7 +13832,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -13745,7 +13871,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -13784,7 +13910,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13823,7 +13949,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -13862,7 +13988,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -13901,7 +14027,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -13940,7 +14066,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -13979,7 +14105,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -14018,7 +14144,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -14057,7 +14183,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -14096,7 +14222,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -14135,7 +14261,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -14174,7 +14300,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -14213,7 +14339,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -14252,7 +14378,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -14291,7 +14417,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -14330,7 +14456,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -14369,7 +14495,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -14408,7 +14534,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -14447,7 +14573,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -14486,7 +14612,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -14525,7 +14651,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -14564,7 +14690,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -14603,7 +14729,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -14642,7 +14768,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -14681,7 +14807,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -14720,7 +14846,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -14759,7 +14885,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -14798,7 +14924,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -14837,7 +14963,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -14876,7 +15002,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -14915,7 +15041,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -14954,7 +15080,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -14993,7 +15119,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -15032,7 +15158,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -15071,7 +15197,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -15110,7 +15236,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -15149,7 +15275,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -15188,7 +15314,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -15227,7 +15353,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -15266,7 +15392,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -15305,7 +15431,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -15344,7 +15470,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -15383,7 +15509,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -15422,7 +15548,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -15461,7 +15587,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -15500,7 +15626,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -15539,7 +15665,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -15578,7 +15704,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -15617,7 +15743,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -15656,7 +15782,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -15695,7 +15821,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -15734,7 +15860,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -15773,7 +15899,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -15812,7 +15938,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -15851,7 +15977,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -15890,7 +16016,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -15929,7 +16055,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -15968,7 +16094,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -16007,7 +16133,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -16046,7 +16172,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -16085,7 +16211,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -16124,7 +16250,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -16163,7 +16289,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -16202,7 +16328,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -16241,7 +16367,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -16280,7 +16406,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -16319,7 +16445,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -16358,7 +16484,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -16397,7 +16523,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -16436,7 +16562,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -16475,7 +16601,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -16514,7 +16640,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -16553,7 +16679,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -16592,7 +16718,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -16631,7 +16757,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -16670,7 +16796,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -16709,7 +16835,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -16748,7 +16874,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -16787,7 +16913,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -16826,7 +16952,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -16865,7 +16991,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -16904,7 +17030,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -16943,7 +17069,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -16982,7 +17108,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -17021,7 +17147,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -17060,7 +17186,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -17099,7 +17225,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -17138,7 +17264,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -17177,7 +17303,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -17216,7 +17342,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -17255,7 +17381,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -17294,7 +17420,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -17333,7 +17459,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -17372,7 +17498,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -17411,7 +17537,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -17450,7 +17576,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -17489,7 +17615,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -17528,7 +17654,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -17567,7 +17693,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -17606,7 +17732,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -17645,7 +17771,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -17684,7 +17810,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -17723,7 +17849,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -17762,7 +17888,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -17801,7 +17927,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -17840,7 +17966,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -17879,7 +18005,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -17918,7 +18044,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -17957,7 +18083,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -17996,7 +18122,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -18035,7 +18161,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -18074,7 +18200,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -18113,7 +18239,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -18152,7 +18278,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -18191,7 +18317,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -18230,7 +18356,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -18269,7 +18395,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -18308,7 +18434,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -18347,7 +18473,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -18386,7 +18512,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -18425,7 +18551,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -18464,7 +18590,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -18503,7 +18629,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -18542,7 +18668,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -18581,7 +18707,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -18620,7 +18746,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -18659,7 +18785,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -18698,7 +18824,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -18737,7 +18863,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -18776,7 +18902,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -18815,7 +18941,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -18854,7 +18980,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -18893,7 +19019,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -18932,7 +19058,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -18971,7 +19097,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -19010,7 +19136,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -19049,7 +19175,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -19088,7 +19214,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -19127,7 +19253,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -19166,7 +19292,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -19205,7 +19331,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -19244,7 +19370,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -19283,7 +19409,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -19322,7 +19448,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -19361,7 +19487,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -19400,7 +19526,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -19439,7 +19565,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -19478,7 +19604,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -19517,7 +19643,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -19556,7 +19682,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -19595,7 +19721,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -19634,7 +19760,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -19673,7 +19799,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -19712,7 +19838,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -19751,7 +19877,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -19790,7 +19916,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -19829,7 +19955,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -19868,7 +19994,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -19907,7 +20033,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -19946,7 +20072,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -19985,7 +20111,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -20024,7 +20150,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -20063,7 +20189,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -20102,7 +20228,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -20141,7 +20267,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -20180,7 +20306,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -20219,7 +20345,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -20258,7 +20384,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -20297,7 +20423,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -20336,7 +20462,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -20375,7 +20501,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -20414,7 +20540,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -20453,7 +20579,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -20492,7 +20618,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -20531,7 +20657,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -20570,7 +20696,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -20609,7 +20735,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -20648,7 +20774,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -20687,7 +20813,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -20726,7 +20852,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -20765,7 +20891,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -20804,7 +20930,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -20843,7 +20969,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -20882,7 +21008,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -20921,7 +21047,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -20960,7 +21086,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -20999,7 +21125,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -21038,7 +21164,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -21077,7 +21203,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -21116,7 +21242,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -21155,7 +21281,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -21194,7 +21320,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -21233,7 +21359,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -21272,7 +21398,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -21311,7 +21437,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -21350,7 +21476,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -21389,7 +21515,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -21428,7 +21554,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -21467,7 +21593,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -21506,7 +21632,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="n">
-        <v>42.52</v>
+        <v>42.53</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -21519,6 +21645,6 @@
       <c r="M565" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest IPX.xlsx
+++ b/BackTest/2020-01-15 BackTest IPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2695,7 +2695,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>57484.771824145</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>57484.771824145</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>66425.687524145</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>66311.341224145</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>66311.341224145</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>67575.188424145</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-41883.76647585499</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-41883.76647585499</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-46378.35467585499</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-58898.46827585499</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-89696.14157585498</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-123670.864375855</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-141743.696575855</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-141743.696575855</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-347219.259375855</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-347219.259375855</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-347219.259375855</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-347219.259375855</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-382587.903575855</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-382587.903575855</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-382587.903575855</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-415216.3665758549</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -5236,14 +5236,10 @@
         <v>-530345.344975855</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>42.54</v>
-      </c>
-      <c r="J147" t="n">
-        <v>42.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
@@ -5276,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>42.54</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5312,19 +5302,11 @@
         <v>-530345.344975855</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>42.54</v>
-      </c>
-      <c r="J149" t="n">
-        <v>42.54</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5386,14 +5368,10 @@
         <v>-530345.344975855</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>42.54</v>
-      </c>
-      <c r="J151" t="n">
-        <v>42.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
@@ -5426,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>42.54</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5465,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>42.54</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5501,14 +5467,10 @@
         <v>-538774.844675855</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="J154" t="n">
-        <v>42.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
@@ -5538,19 +5500,11 @@
         <v>-538708.452275855</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>42.52</v>
-      </c>
-      <c r="J155" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5579,19 +5533,11 @@
         <v>-538708.452275855</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>42.54</v>
-      </c>
-      <c r="J156" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5620,19 +5566,11 @@
         <v>-538774.452275855</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>42.54</v>
-      </c>
-      <c r="J157" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5661,19 +5599,11 @@
         <v>-538730.452275855</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>42.52</v>
-      </c>
-      <c r="J158" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5702,19 +5632,11 @@
         <v>-540553.683475855</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>42.54</v>
-      </c>
-      <c r="J159" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5743,19 +5665,11 @@
         <v>-540553.683475855</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>42.52</v>
-      </c>
-      <c r="J160" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5784,19 +5698,11 @@
         <v>-540553.683475855</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>42.52</v>
-      </c>
-      <c r="J161" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5825,19 +5731,11 @@
         <v>-517088.1151758551</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>42.52</v>
-      </c>
-      <c r="J162" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5866,19 +5764,11 @@
         <v>-557389.0766758551</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>42.54</v>
-      </c>
-      <c r="J163" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5907,19 +5797,11 @@
         <v>-556732.0766758551</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>42.52</v>
-      </c>
-      <c r="J164" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5948,19 +5830,11 @@
         <v>-556732.0766758551</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>42.54</v>
-      </c>
-      <c r="J165" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5989,19 +5863,11 @@
         <v>-533603.653875855</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>42.54</v>
-      </c>
-      <c r="J166" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6030,19 +5896,11 @@
         <v>-533560.4244758551</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>43</v>
-      </c>
-      <c r="J167" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6074,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6113,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6152,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6191,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6230,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6269,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6308,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6347,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6386,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6425,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6464,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6503,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6542,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6581,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6620,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6659,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6698,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6737,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6776,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6815,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6851,17 +6589,11 @@
         <v>-495142.714675855</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6893,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6929,17 +6655,11 @@
         <v>-496692.509375855</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6968,17 +6688,11 @@
         <v>-496692.509375855</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7007,17 +6721,11 @@
         <v>-496692.509375855</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7049,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7088,14 +6790,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7124,17 +6820,11 @@
         <v>-496692.509375855</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7163,17 +6853,11 @@
         <v>-496692.509375855</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7202,17 +6886,11 @@
         <v>-496692.509375855</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7244,14 +6922,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7280,17 +6952,11 @@
         <v>-495796.248075855</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7319,17 +6985,11 @@
         <v>-495796.248075855</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7358,17 +7018,11 @@
         <v>-497098.164075855</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7397,17 +7051,11 @@
         <v>-497098.164075855</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7436,17 +7084,11 @@
         <v>-497098.164075855</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7475,17 +7117,11 @@
         <v>-497098.164075855</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7514,17 +7150,11 @@
         <v>-497098.164075855</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7553,17 +7183,11 @@
         <v>-495880.167175855</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7592,17 +7216,11 @@
         <v>-496740.309675855</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7631,17 +7249,11 @@
         <v>-495843.300875855</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7670,17 +7282,11 @@
         <v>-498482.201975855</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7709,17 +7315,11 @@
         <v>-498482.201975855</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7748,17 +7348,11 @@
         <v>-498482.201975855</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7787,17 +7381,11 @@
         <v>-498482.201975855</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7826,17 +7414,11 @@
         <v>-498156.7229758551</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7868,14 +7450,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7907,14 +7483,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7946,14 +7516,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7985,14 +7549,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8024,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8063,14 +7615,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8102,14 +7648,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8141,14 +7681,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8180,14 +7714,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8219,14 +7747,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8258,14 +7780,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8297,14 +7813,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8336,14 +7846,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8375,14 +7879,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8414,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8453,14 +7945,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8492,14 +7978,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8531,14 +8011,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8570,14 +8044,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8609,14 +8077,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8648,14 +8110,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8687,14 +8143,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8726,14 +8176,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8765,14 +8209,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8804,14 +8242,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8843,14 +8275,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8882,14 +8308,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8921,14 +8341,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8960,14 +8374,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8999,14 +8407,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9038,14 +8440,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9077,14 +8473,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9116,14 +8506,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9152,17 +8536,15 @@
         <v>-609160.282775855</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>42.52</v>
+      </c>
       <c r="J247" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>42.52</v>
+      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9191,15 +8573,17 @@
         <v>-620980.2262758551</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>42.53</v>
+      </c>
       <c r="J248" t="n">
-        <v>42.53</v>
+        <v>42.52</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L248" t="n">
@@ -9236,11 +8620,11 @@
         <v>42.52</v>
       </c>
       <c r="J249" t="n">
-        <v>42.53</v>
+        <v>42.52</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L249" t="n">
@@ -9277,13 +8661,9 @@
         <v>42.52</v>
       </c>
       <c r="J250" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>42.52</v>
+      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9318,11 +8698,11 @@
         <v>42.56</v>
       </c>
       <c r="J251" t="n">
-        <v>42.53</v>
+        <v>42.52</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L251" t="n">
@@ -9359,11 +8739,11 @@
         <v>42.54</v>
       </c>
       <c r="J252" t="n">
-        <v>42.53</v>
+        <v>42.52</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L252" t="n">
@@ -9400,13 +8780,9 @@
         <v>42.54</v>
       </c>
       <c r="J253" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>42.54</v>
+      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9441,11 +8817,11 @@
         <v>42.54</v>
       </c>
       <c r="J254" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L254" t="n">
@@ -9482,11 +8858,11 @@
         <v>42.7</v>
       </c>
       <c r="J255" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L255" t="n">
@@ -9523,13 +8899,9 @@
         <v>42.7</v>
       </c>
       <c r="J256" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>42.7</v>
+      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9564,11 +8936,11 @@
         <v>42.54</v>
       </c>
       <c r="J257" t="n">
-        <v>42.53</v>
+        <v>42.7</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L257" t="n">
@@ -9605,11 +8977,11 @@
         <v>42.7</v>
       </c>
       <c r="J258" t="n">
-        <v>42.53</v>
+        <v>42.7</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L258" t="n">
@@ -9640,19 +9012,11 @@
         <v>-622709.6463271441</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="J259" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9681,19 +9045,11 @@
         <v>-623030.2024271442</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="J260" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9728,13 +9084,9 @@
         <v>42.54</v>
       </c>
       <c r="J261" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>42.54</v>
+      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9769,11 +9121,11 @@
         <v>42.54</v>
       </c>
       <c r="J262" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L262" t="n">
@@ -9810,11 +9162,11 @@
         <v>42.7</v>
       </c>
       <c r="J263" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L263" t="n">
@@ -9845,19 +9197,11 @@
         <v>-623008.2024271442</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="J264" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9886,19 +9230,11 @@
         <v>-623008.2024271442</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="J265" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9927,19 +9263,11 @@
         <v>-623030.2024271442</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="J266" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9968,19 +9296,11 @@
         <v>-623030.2024271442</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>42.54</v>
-      </c>
-      <c r="J267" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10009,19 +9329,11 @@
         <v>-623030.2024271442</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>42.54</v>
-      </c>
-      <c r="J268" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10056,13 +9368,9 @@
         <v>42.54</v>
       </c>
       <c r="J269" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>42.54</v>
+      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10091,17 +9399,15 @@
         <v>-624530.2024271442</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>42.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L270" t="n">
@@ -10138,7 +9444,7 @@
         <v>42.53</v>
       </c>
       <c r="J271" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -10173,13 +9479,11 @@
         <v>-682861.5685271441</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>42.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10220,7 +9524,7 @@
         <v>42.5</v>
       </c>
       <c r="J273" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10261,7 +9565,7 @@
         <v>42.5</v>
       </c>
       <c r="J274" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10302,7 +9606,7 @@
         <v>42.5</v>
       </c>
       <c r="J275" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10337,11 +9641,13 @@
         <v>-682454.7197271441</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J276" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10382,7 +9688,7 @@
         <v>42.6</v>
       </c>
       <c r="J277" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10417,13 +9723,11 @@
         <v>-682454.7197271441</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>42.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10458,13 +9762,11 @@
         <v>-700208.0899271441</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>42.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10499,13 +9801,11 @@
         <v>-676680.4759758551</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>42.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10540,13 +9840,11 @@
         <v>-679012.0235245661</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>42.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10581,13 +9879,11 @@
         <v>-455337.4707245661</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>42.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10626,7 +9922,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10665,7 +9961,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10704,7 +10000,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10743,7 +10039,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10782,7 +10078,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10821,7 +10117,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10860,7 +10156,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10895,13 +10191,11 @@
         <v>-465451.0039245661</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>42.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10936,13 +10230,11 @@
         <v>-462670.3627245661</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>42.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10981,7 +10273,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11016,13 +10308,11 @@
         <v>-462670.3627245661</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>42.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -11057,13 +10347,11 @@
         <v>-462670.3627245661</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>42.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -11102,7 +10390,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -11141,7 +10429,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -11180,7 +10468,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -11219,7 +10507,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -11258,7 +10546,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -11297,7 +10585,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -11336,7 +10624,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -11375,7 +10663,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -11414,7 +10702,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -11453,7 +10741,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -11492,7 +10780,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11531,7 +10819,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11570,7 +10858,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11609,7 +10897,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11648,7 +10936,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11687,7 +10975,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11726,7 +11014,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11765,7 +11053,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11804,7 +11092,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11843,7 +11131,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11882,7 +11170,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11921,7 +11209,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11960,7 +11248,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11999,7 +11287,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -12038,7 +11326,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -12077,7 +11365,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -12116,7 +11404,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -12155,7 +11443,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -12194,7 +11482,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -12233,7 +11521,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -12272,7 +11560,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -12311,7 +11599,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -12350,7 +11638,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -12389,7 +11677,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -12428,7 +11716,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -12467,7 +11755,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -12506,7 +11794,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -12545,7 +11833,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12584,7 +11872,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -12623,7 +11911,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12662,7 +11950,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12701,7 +11989,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -12740,7 +12028,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12779,7 +12067,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12818,7 +12106,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12857,7 +12145,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12896,7 +12184,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12935,7 +12223,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12974,7 +12262,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -13013,7 +12301,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -13052,7 +12340,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -13091,7 +12379,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -13130,7 +12418,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -13169,7 +12457,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -13208,7 +12496,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -13247,7 +12535,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -13286,7 +12574,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -13325,7 +12613,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -13364,7 +12652,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -13403,7 +12691,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -13442,7 +12730,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -13481,7 +12769,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -13520,7 +12808,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -13559,7 +12847,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -13598,7 +12886,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -13637,7 +12925,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -13676,7 +12964,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -13715,7 +13003,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -13754,7 +13042,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -13793,7 +13081,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -13832,7 +13120,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -13871,7 +13159,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -13910,7 +13198,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13949,7 +13237,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -13988,7 +13276,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -14027,7 +13315,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -14066,7 +13354,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -14105,7 +13393,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -14144,7 +13432,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -14183,7 +13471,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -14222,7 +13510,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -14261,7 +13549,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -14300,7 +13588,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -14339,7 +13627,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -14378,7 +13666,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -14417,7 +13705,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -14456,7 +13744,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -14495,7 +13783,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -14534,7 +13822,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -14573,7 +13861,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -14612,7 +13900,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -14651,7 +13939,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -14690,7 +13978,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -14729,7 +14017,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -14768,7 +14056,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -14807,7 +14095,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -14846,7 +14134,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -14885,7 +14173,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -14924,7 +14212,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -14963,7 +14251,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -15002,7 +14290,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -15041,7 +14329,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -15080,7 +14368,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -15119,7 +14407,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -15158,7 +14446,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -15197,7 +14485,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -15236,7 +14524,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -15275,7 +14563,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -15314,7 +14602,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -15353,7 +14641,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -15392,7 +14680,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -15431,7 +14719,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -15470,7 +14758,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -15509,7 +14797,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -15548,7 +14836,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -15587,7 +14875,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -15626,7 +14914,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -15665,7 +14953,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -15704,7 +14992,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -15743,7 +15031,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -15782,7 +15070,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -15821,7 +15109,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -15860,7 +15148,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -15899,7 +15187,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -15938,7 +15226,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -15977,7 +15265,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -16016,7 +15304,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -16055,7 +15343,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -16094,7 +15382,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -16133,7 +15421,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -16172,7 +15460,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -16211,7 +15499,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -16250,7 +15538,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -16289,7 +15577,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -16328,7 +15616,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -16367,7 +15655,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -16406,7 +15694,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -16445,7 +15733,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -16484,7 +15772,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -16523,7 +15811,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -16562,7 +15850,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -16601,7 +15889,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -16640,7 +15928,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -16679,7 +15967,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -16718,7 +16006,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -16757,7 +16045,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -16796,7 +16084,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -16835,7 +16123,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -16874,7 +16162,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -16913,7 +16201,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -16952,7 +16240,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -16991,7 +16279,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -17030,7 +16318,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -17069,7 +16357,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -17108,7 +16396,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -17147,7 +16435,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -17186,7 +16474,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -17225,7 +16513,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -17264,7 +16552,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -17303,7 +16591,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -17342,7 +16630,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -17381,7 +16669,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -17420,7 +16708,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -17459,7 +16747,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -17498,7 +16786,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -17537,7 +16825,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -17576,7 +16864,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -17615,7 +16903,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -17654,7 +16942,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -17693,7 +16981,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -17732,7 +17020,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -17771,7 +17059,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -17810,7 +17098,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -17849,7 +17137,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -17888,7 +17176,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -17927,7 +17215,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -17966,7 +17254,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -18005,7 +17293,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -18044,7 +17332,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -18083,7 +17371,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -18122,7 +17410,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -18161,7 +17449,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -18200,7 +17488,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -18239,7 +17527,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -18278,7 +17566,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -18317,7 +17605,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -18356,7 +17644,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -18395,7 +17683,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -18434,7 +17722,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -18473,7 +17761,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -18512,7 +17800,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -18551,7 +17839,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -18590,7 +17878,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -18629,7 +17917,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -18668,7 +17956,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -18707,7 +17995,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -18746,7 +18034,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -18785,7 +18073,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -18824,7 +18112,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -18863,7 +18151,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -18902,7 +18190,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -18941,7 +18229,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -18980,7 +18268,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -19019,7 +18307,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -19058,7 +18346,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -19097,7 +18385,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -19136,7 +18424,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -19175,7 +18463,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -19214,7 +18502,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -19253,7 +18541,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -19292,7 +18580,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -19331,7 +18619,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -19370,7 +18658,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -19409,7 +18697,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -19448,7 +18736,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -19487,7 +18775,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -19526,7 +18814,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -19565,7 +18853,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -19604,7 +18892,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -19643,7 +18931,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -19682,7 +18970,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -19721,7 +19009,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -19760,7 +19048,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -19799,7 +19087,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -19838,7 +19126,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -19877,7 +19165,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -19916,7 +19204,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -19955,7 +19243,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -19994,7 +19282,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -20033,7 +19321,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -20072,7 +19360,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -20111,7 +19399,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -20150,7 +19438,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -20189,7 +19477,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -20228,7 +19516,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -20267,7 +19555,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -20306,7 +19594,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -20345,7 +19633,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -20384,7 +19672,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -20423,7 +19711,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -20462,7 +19750,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -20501,7 +19789,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -20540,7 +19828,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -20579,7 +19867,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -20618,7 +19906,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -20657,7 +19945,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -20696,7 +19984,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -20735,7 +20023,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -20770,19 +20058,19 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
-        <v>42.53</v>
+        <v>42.54</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L543" t="n">
-        <v>1</v>
+        <v>1.017566995768688</v>
       </c>
       <c r="M543" t="inlineStr"/>
     </row>
@@ -20809,17 +20097,11 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20848,17 +20130,11 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20887,17 +20163,11 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20926,17 +20196,11 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20965,17 +20229,11 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -21004,17 +20262,11 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -21043,17 +20295,11 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -21082,17 +20328,11 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -21124,14 +20364,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -21163,14 +20397,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -21202,14 +20430,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -21241,14 +20463,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -21280,14 +20496,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -21319,14 +20529,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -21358,14 +20562,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -21397,14 +20595,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -21436,14 +20628,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -21475,14 +20661,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -21514,14 +20694,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -21553,14 +20727,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -21592,14 +20760,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -21631,20 +20793,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
       <c r="M565" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest IPX.xlsx
+++ b/BackTest/2020-01-15 BackTest IPX.xlsx
@@ -2266,7 +2266,7 @@
         <v>57472.949824145</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>57472.949824145</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>57472.949824145</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>57472.949824145</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>57472.949824145</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>57494.949824145</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>57462.771824145</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>57462.771824145</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>57484.771824145</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>57484.771824145</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>57484.771824145</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>66425.687524145</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>66311.341224145</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>66311.341224145</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>67575.188424145</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>67575.188424145</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>67575.188424145</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>67575.188424145</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>67470.593724145</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>51591.199324145</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>24413.087324145</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-3038.912675854997</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-27024.717275855</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -5500,11 +5500,17 @@
         <v>-538708.452275855</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>42.52</v>
+      </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +5543,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5576,17 @@
         <v>-538774.452275855</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>42.54</v>
+      </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5615,17 @@
         <v>-538730.452275855</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>42.52</v>
+      </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5654,17 @@
         <v>-540553.683475855</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>42.54</v>
+      </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +5693,17 @@
         <v>-540553.683475855</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>42.52</v>
+      </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +5732,17 @@
         <v>-540553.683475855</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>42.52</v>
+      </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5771,17 @@
         <v>-517088.1151758551</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>42.52</v>
+      </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5810,17 @@
         <v>-557389.0766758551</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>42.54</v>
+      </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +5849,17 @@
         <v>-556732.0766758551</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>42.52</v>
+      </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +5888,17 @@
         <v>-556732.0766758551</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>42.54</v>
+      </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +5927,17 @@
         <v>-533603.653875855</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>42.54</v>
+      </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +5966,17 @@
         <v>-533560.4244758551</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>43</v>
+      </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5933,7 +6009,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5966,7 +6046,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5999,7 +6083,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6032,7 +6120,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6065,7 +6157,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6098,7 +6194,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6131,7 +6231,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6164,7 +6268,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6197,7 +6305,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6230,7 +6342,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6263,7 +6379,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6296,7 +6416,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6329,7 +6453,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6362,7 +6490,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6395,7 +6527,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6428,7 +6564,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6461,7 +6601,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6494,7 +6638,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6527,7 +6675,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +6712,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6589,11 +6745,15 @@
         <v>-495142.714675855</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6626,7 +6786,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +6819,15 @@
         <v>-496692.509375855</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6688,11 +6856,15 @@
         <v>-496692.509375855</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6721,11 +6893,15 @@
         <v>-496692.509375855</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +6934,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6791,7 +6971,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6820,11 +7004,15 @@
         <v>-496692.509375855</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6853,11 +7041,15 @@
         <v>-496692.509375855</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6886,11 +7078,15 @@
         <v>-496692.509375855</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6923,7 +7119,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +7152,15 @@
         <v>-495796.248075855</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +7189,15 @@
         <v>-495796.248075855</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +7226,15 @@
         <v>-497098.164075855</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +7263,15 @@
         <v>-497098.164075855</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7084,11 +7300,15 @@
         <v>-497098.164075855</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7117,11 +7337,15 @@
         <v>-497098.164075855</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7150,11 +7374,15 @@
         <v>-497098.164075855</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7183,11 +7411,15 @@
         <v>-495880.167175855</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7216,11 +7448,15 @@
         <v>-496740.309675855</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7249,11 +7485,15 @@
         <v>-495843.300875855</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +7522,15 @@
         <v>-498482.201975855</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +7559,15 @@
         <v>-498482.201975855</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +7596,15 @@
         <v>-498482.201975855</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +7633,15 @@
         <v>-498482.201975855</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +7670,15 @@
         <v>-498156.7229758551</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7451,7 +7711,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7484,7 +7748,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +7785,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7550,7 +7822,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +7859,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +7896,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +7933,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +7970,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +8007,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +8044,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +8081,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +8118,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +8155,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +8192,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8229,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +8266,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8303,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8340,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8377,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8414,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8451,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +8488,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +8525,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8210,7 +8562,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8243,7 +8599,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8276,7 +8636,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8309,7 +8673,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8342,7 +8710,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8375,7 +8747,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8408,7 +8784,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8441,7 +8821,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8474,7 +8858,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8507,7 +8895,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8536,15 +8928,15 @@
         <v>-609160.282775855</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>42.52</v>
-      </c>
-      <c r="J247" t="n">
-        <v>42.52</v>
-      </c>
-      <c r="K247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8573,17 +8965,13 @@
         <v>-620980.2262758551</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="J248" t="n">
-        <v>42.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L248" t="n">
@@ -8614,17 +9002,13 @@
         <v>-620980.2262758551</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>42.52</v>
-      </c>
-      <c r="J249" t="n">
-        <v>42.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L249" t="n">
@@ -8655,15 +9039,15 @@
         <v>-618759.1083758551</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>42.52</v>
-      </c>
-      <c r="J250" t="n">
-        <v>42.52</v>
-      </c>
-      <c r="K250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8692,17 +9076,13 @@
         <v>-622079.1093758552</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>42.56</v>
-      </c>
-      <c r="J251" t="n">
-        <v>42.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L251" t="n">
@@ -8733,17 +9113,13 @@
         <v>-622079.1093758552</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>42.54</v>
-      </c>
-      <c r="J252" t="n">
-        <v>42.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L252" t="n">
@@ -8774,15 +9150,15 @@
         <v>-622079.1093758552</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>42.54</v>
-      </c>
-      <c r="J253" t="n">
-        <v>42.54</v>
-      </c>
-      <c r="K253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8811,17 +9187,13 @@
         <v>-621879.1093758552</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>42.54</v>
-      </c>
-      <c r="J254" t="n">
-        <v>42.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L254" t="n">
@@ -8852,17 +9224,13 @@
         <v>-621879.1093758552</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="J255" t="n">
-        <v>42.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L255" t="n">
@@ -8893,15 +9261,15 @@
         <v>-624464.0959758551</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="J256" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="K256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8930,17 +9298,13 @@
         <v>-622709.6463271441</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>42.54</v>
-      </c>
-      <c r="J257" t="n">
-        <v>42.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L257" t="n">
@@ -8971,17 +9335,13 @@
         <v>-622709.6463271441</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="J258" t="n">
-        <v>42.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L258" t="n">
@@ -9016,7 +9376,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9049,7 +9413,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9078,15 +9446,15 @@
         <v>-623030.2024271442</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>42.54</v>
-      </c>
-      <c r="J261" t="n">
-        <v>42.54</v>
-      </c>
-      <c r="K261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9115,17 +9483,13 @@
         <v>-623008.2024271442</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>42.54</v>
-      </c>
-      <c r="J262" t="n">
-        <v>42.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L262" t="n">
@@ -9156,17 +9520,13 @@
         <v>-623008.2024271442</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="J263" t="n">
-        <v>42.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L263" t="n">
@@ -9201,7 +9561,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9234,7 +9598,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9267,7 +9635,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9300,7 +9672,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9333,7 +9709,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9367,10 +9747,12 @@
       <c r="I269" t="n">
         <v>42.54</v>
       </c>
-      <c r="J269" t="n">
-        <v>42.54</v>
-      </c>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9399,15 +9781,15 @@
         <v>-624530.2024271442</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
         <v>42.54</v>
       </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L270" t="n">
@@ -9443,9 +9825,7 @@
       <c r="I271" t="n">
         <v>42.53</v>
       </c>
-      <c r="J271" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9479,12 +9859,12 @@
         <v>-682861.5685271441</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>42.54</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9523,9 +9903,7 @@
       <c r="I273" t="n">
         <v>42.5</v>
       </c>
-      <c r="J273" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9564,9 +9942,7 @@
       <c r="I274" t="n">
         <v>42.5</v>
       </c>
-      <c r="J274" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9605,9 +9981,7 @@
       <c r="I275" t="n">
         <v>42.5</v>
       </c>
-      <c r="J275" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9646,9 +10020,7 @@
       <c r="I276" t="n">
         <v>42.6</v>
       </c>
-      <c r="J276" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9687,9 +10059,7 @@
       <c r="I277" t="n">
         <v>42.6</v>
       </c>
-      <c r="J277" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9723,12 +10093,12 @@
         <v>-682454.7197271441</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>42.54</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9762,12 +10132,12 @@
         <v>-700208.0899271441</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>42.54</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9801,12 +10171,12 @@
         <v>-676680.4759758551</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>42.54</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9840,12 +10210,12 @@
         <v>-679012.0235245661</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>42.54</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9879,12 +10249,12 @@
         <v>-455337.4707245661</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>42.54</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9921,9 +10291,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9960,9 +10328,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9999,9 +10365,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10038,9 +10402,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10077,9 +10439,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10116,9 +10476,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10155,9 +10513,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10194,9 +10550,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10233,9 +10587,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10272,9 +10624,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10311,9 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10350,9 +10698,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10389,9 +10735,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10428,9 +10772,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10467,9 +10809,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10506,9 +10846,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10545,9 +10883,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10584,9 +10920,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10623,9 +10957,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10662,9 +10994,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10701,9 +11031,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10740,9 +11068,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10779,9 +11105,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10818,9 +11142,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10857,9 +11179,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10896,9 +11216,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10935,9 +11253,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10974,9 +11290,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11013,9 +11327,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11052,9 +11364,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11091,9 +11401,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11130,9 +11438,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11169,9 +11475,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11208,9 +11512,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11247,9 +11549,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11286,9 +11586,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11325,9 +11623,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11364,9 +11660,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11403,9 +11697,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11442,9 +11734,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11481,9 +11771,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11520,9 +11808,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11559,9 +11845,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11598,9 +11882,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11637,9 +11919,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11676,9 +11956,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11715,9 +11993,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11754,9 +12030,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11793,9 +12067,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11832,9 +12104,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11871,9 +12141,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11910,9 +12178,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11949,9 +12215,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11988,9 +12252,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12027,9 +12289,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12066,9 +12326,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12105,9 +12363,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12144,9 +12400,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12183,9 +12437,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12222,9 +12474,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12261,9 +12511,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12300,9 +12548,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12339,9 +12585,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12378,9 +12622,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12417,9 +12659,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12456,9 +12696,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12495,9 +12733,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12534,9 +12770,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12573,9 +12807,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12612,9 +12844,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12651,9 +12881,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12690,9 +12918,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12729,9 +12955,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12768,9 +12992,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12807,9 +13029,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12846,9 +13066,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12885,9 +13103,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12924,9 +13140,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12963,9 +13177,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13002,9 +13214,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13041,9 +13251,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13080,9 +13288,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13119,9 +13325,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13158,9 +13362,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13197,9 +13399,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13236,9 +13436,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13275,9 +13473,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13314,9 +13510,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13353,9 +13547,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13392,9 +13584,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13431,9 +13621,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13470,9 +13658,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13509,9 +13695,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13548,9 +13732,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13587,9 +13769,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13626,9 +13806,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13665,9 +13843,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13704,9 +13880,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13743,9 +13917,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13782,9 +13954,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13821,9 +13991,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13860,9 +14028,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13899,9 +14065,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13938,9 +14102,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13977,9 +14139,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14016,9 +14176,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14055,9 +14213,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14094,9 +14250,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14133,9 +14287,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14172,9 +14324,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14211,9 +14361,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14250,9 +14398,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14289,9 +14435,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14328,9 +14472,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14367,9 +14509,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14406,9 +14546,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14445,9 +14583,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14484,9 +14620,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14523,9 +14657,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14562,9 +14694,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14601,9 +14731,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14640,9 +14768,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14679,9 +14805,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14718,9 +14842,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14757,9 +14879,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14796,9 +14916,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14835,9 +14953,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14874,9 +14990,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14913,9 +15027,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14952,9 +15064,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14991,9 +15101,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15030,9 +15138,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15069,9 +15175,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15108,9 +15212,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15147,9 +15249,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15186,9 +15286,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15225,9 +15323,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15264,9 +15360,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15303,9 +15397,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15342,9 +15434,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15381,9 +15471,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15420,9 +15508,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15459,9 +15545,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15498,9 +15582,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15537,9 +15619,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15576,9 +15656,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15615,9 +15693,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15654,9 +15730,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15693,9 +15767,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15732,9 +15804,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15771,9 +15841,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15810,9 +15878,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15849,9 +15915,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15888,9 +15952,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15927,9 +15989,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15966,9 +16026,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16005,9 +16063,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16044,9 +16100,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16083,9 +16137,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16122,9 +16174,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16161,9 +16211,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16200,9 +16248,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16239,9 +16285,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16278,9 +16322,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16317,9 +16359,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16356,9 +16396,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16395,9 +16433,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16434,9 +16470,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16473,9 +16507,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16512,9 +16544,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16551,9 +16581,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16590,9 +16618,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16629,9 +16655,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16668,9 +16692,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16707,9 +16729,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16746,9 +16766,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16785,9 +16803,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16824,9 +16840,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16863,9 +16877,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16902,9 +16914,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16941,9 +16951,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16980,9 +16988,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17019,9 +17025,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17058,9 +17062,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17097,9 +17099,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17136,9 +17136,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17175,9 +17173,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17214,9 +17210,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17253,9 +17247,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17292,9 +17284,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17331,9 +17321,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17370,9 +17358,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17409,9 +17395,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17448,9 +17432,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17487,9 +17469,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17526,9 +17506,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17565,9 +17543,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17604,9 +17580,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17643,9 +17617,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17682,9 +17654,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17721,9 +17691,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17760,9 +17728,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17799,9 +17765,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17838,9 +17802,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17877,9 +17839,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17916,9 +17876,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17955,9 +17913,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17994,9 +17950,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18033,9 +17987,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18072,9 +18024,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18111,9 +18061,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18150,9 +18098,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18189,9 +18135,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18228,9 +18172,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18267,9 +18209,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18306,9 +18246,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18345,9 +18283,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18384,9 +18320,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18423,9 +18357,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18462,9 +18394,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18501,9 +18431,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18540,9 +18468,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18579,9 +18505,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18618,9 +18542,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18657,9 +18579,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18696,9 +18616,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18735,9 +18653,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18774,9 +18690,7 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18813,9 +18727,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18852,9 +18764,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18891,9 +18801,7 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18930,9 +18838,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18969,9 +18875,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19008,9 +18912,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19047,9 +18949,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19086,9 +18986,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19125,9 +19023,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19164,9 +19060,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19203,9 +19097,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19242,9 +19134,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19281,9 +19171,7 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19320,9 +19208,7 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19359,9 +19245,7 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19398,9 +19282,7 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19437,9 +19319,7 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19476,9 +19356,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19515,9 +19393,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19554,9 +19430,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19593,9 +19467,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19632,9 +19504,7 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19671,9 +19541,7 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19710,9 +19578,7 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19749,9 +19615,7 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19788,9 +19652,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19827,9 +19689,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19866,9 +19726,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19905,9 +19763,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19944,9 +19800,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19983,9 +19837,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20022,9 +19874,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20058,19 +19908,17 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>42.54</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L543" t="n">
-        <v>1.017566995768688</v>
+        <v>1</v>
       </c>
       <c r="M543" t="inlineStr"/>
     </row>
@@ -20097,11 +19945,15 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20130,11 +19982,15 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20163,11 +20019,15 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20196,11 +20056,15 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20229,11 +20093,15 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20262,11 +20130,15 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20295,11 +20167,15 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20328,11 +20204,15 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20365,7 +20245,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20398,7 +20282,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20431,7 +20319,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20464,7 +20356,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20497,7 +20393,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20530,7 +20430,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20563,7 +20467,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20596,7 +20504,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20629,7 +20541,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20662,7 +20578,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20695,7 +20615,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20728,7 +20652,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20761,7 +20689,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20794,7 +20726,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
